--- a/stat_arb/pair_perform.xlsx
+++ b/stat_arb/pair_perform.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView windowWidth="26920" windowHeight="13420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36">
   <si>
     <t>pair</t>
   </si>
@@ -43,82 +43,82 @@
     <t>002013.SZ@600372.SH</t>
   </si>
   <si>
+    <t>5181372.0@15797760.0</t>
+  </si>
+  <si>
     <t>000789.SZ@002233.SZ</t>
   </si>
   <si>
+    <t>5343780.0@11537325.0</t>
+  </si>
+  <si>
     <t>688388.SH@600110.SH</t>
   </si>
   <si>
+    <t>530145.0@5456781.0</t>
+  </si>
+  <si>
     <t>300760.SZ@603259.SH</t>
   </si>
   <si>
+    <t>19587300.0@2080250.0</t>
+  </si>
+  <si>
     <t>002555.SZ@002624.SZ</t>
   </si>
   <si>
+    <t>4057319.0@585648.0</t>
+  </si>
+  <si>
     <t>000088.SZ@600798.SH</t>
   </si>
   <si>
+    <t>127506.0@1770720.0</t>
+  </si>
+  <si>
     <t>600163.SH@600021.SH</t>
   </si>
   <si>
+    <t>2561416.0@519024.0</t>
+  </si>
+  <si>
     <t>300750.SZ@300014.SZ</t>
   </si>
   <si>
+    <t>8313390.0@681000.0</t>
+  </si>
+  <si>
     <t>002236.SZ@002415.SZ</t>
   </si>
   <si>
+    <t>636120.0@2013238.0</t>
+  </si>
+  <si>
     <t>600531.SH@000426.SZ</t>
   </si>
   <si>
+    <t>586988.0@198462.0</t>
+  </si>
+  <si>
     <t>601186.SH@601390.SH</t>
   </si>
   <si>
+    <t>107965.0@493805.0</t>
+  </si>
+  <si>
     <t>600316.SH@000738.SZ</t>
   </si>
   <si>
+    <t>332175.0@53082.0</t>
+  </si>
+  <si>
     <t>000402.SZ@600466.SH</t>
   </si>
   <si>
+    <t>287532.0@7564.0</t>
+  </si>
+  <si>
     <t>000422.SZ@000731.SZ</t>
-  </si>
-  <si>
-    <t>5181372.0@15797760.0</t>
-  </si>
-  <si>
-    <t>5343780.0@11537325.0</t>
-  </si>
-  <si>
-    <t>530145.0@5456781.0</t>
-  </si>
-  <si>
-    <t>19587300.0@2080250.0</t>
-  </si>
-  <si>
-    <t>4057319.0@585648.0</t>
-  </si>
-  <si>
-    <t>127506.0@1770720.0</t>
-  </si>
-  <si>
-    <t>2561416.0@519024.0</t>
-  </si>
-  <si>
-    <t>8313390.0@681000.0</t>
-  </si>
-  <si>
-    <t>636120.0@2013238.0</t>
-  </si>
-  <si>
-    <t>586988.0@198462.0</t>
-  </si>
-  <si>
-    <t>107965.0@493805.0</t>
-  </si>
-  <si>
-    <t>332175.0@53082.0</t>
-  </si>
-  <si>
-    <t>287532.0@7564.0</t>
   </si>
   <si>
     <t>4445584.0@797.0</t>
@@ -128,32 +128,381 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -176,21 +525,318 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -473,409 +1119,421 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="23.3076923076923" customWidth="1"/>
+    <col min="2" max="2" width="23" customWidth="1"/>
+    <col min="3" max="3" width="12.9230769230769" customWidth="1"/>
+    <col min="4" max="4" width="13.3076923076923" customWidth="1"/>
+    <col min="5" max="6" width="12.9230769230769" customWidth="1"/>
+    <col min="7" max="7" width="15.7692307692308" customWidth="1"/>
+    <col min="8" max="8" width="18.4615384615385" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" t="s">
+      <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2">
-        <v>3002195.838505991</v>
-      </c>
-      <c r="D2">
-        <v>0.5794210179284551</v>
-      </c>
-      <c r="E2">
-        <v>0.5794210179284551</v>
-      </c>
-      <c r="F2">
-        <v>4.221897063980226</v>
-      </c>
-      <c r="G2">
-        <v>0.06668862131815845</v>
-      </c>
-      <c r="H2">
+      <c r="B2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="3">
+        <v>3002195.83850599</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0.579421017928455</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0.579421017928455</v>
+      </c>
+      <c r="F2" s="3">
+        <v>4.22189706398023</v>
+      </c>
+      <c r="G2" s="3">
+        <v>0.0666886213181584</v>
+      </c>
+      <c r="H2" s="3">
         <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3">
-        <v>2278579.704522707</v>
-      </c>
-      <c r="D3">
-        <v>0.4275592730732731</v>
-      </c>
-      <c r="E3">
-        <v>0.4275592730732731</v>
-      </c>
-      <c r="F3">
-        <v>4.237814057149228</v>
-      </c>
-      <c r="G3">
-        <v>0.04582497358683058</v>
-      </c>
-      <c r="H3">
+      <c r="A3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="3">
+        <v>2278579.70452271</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0.427559273073273</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0.427559273073273</v>
+      </c>
+      <c r="F3" s="3">
+        <v>4.23781405714923</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0.0458249735868306</v>
+      </c>
+      <c r="H3" s="3">
         <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4">
-        <v>1525900.490811636</v>
-      </c>
-      <c r="D4">
-        <v>2.857237582724118</v>
-      </c>
-      <c r="E4">
-        <v>2.857237582724118</v>
-      </c>
-      <c r="F4">
-        <v>12.76635017546011</v>
-      </c>
-      <c r="G4">
+      <c r="A4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="3">
+        <v>1525900.49081164</v>
+      </c>
+      <c r="D4" s="3">
+        <v>2.85723758272412</v>
+      </c>
+      <c r="E4" s="3">
+        <v>2.85723758272412</v>
+      </c>
+      <c r="F4" s="3">
+        <v>12.7663501754601</v>
+      </c>
+      <c r="G4" s="3">
         <v>0.0652512500508593</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="3">
         <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5">
-        <v>391794.7497761082</v>
-      </c>
-      <c r="D5">
-        <v>0.1883402234231972</v>
-      </c>
-      <c r="E5">
-        <v>0.1883402234231972</v>
-      </c>
-      <c r="F5">
-        <v>0.9581226593750519</v>
-      </c>
-      <c r="G5">
-        <v>0.1205468858092279</v>
-      </c>
-      <c r="H5">
+      <c r="A5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="3">
+        <v>391794.749776108</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0.188340223423197</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0.188340223423197</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0.958122659375052</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0.120546885809228</v>
+      </c>
+      <c r="H5" s="3">
         <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6">
-        <v>326480.8678511935</v>
-      </c>
-      <c r="D6">
-        <v>0.5574694489713843</v>
-      </c>
-      <c r="E6">
-        <v>0.5574694489713843</v>
-      </c>
-      <c r="F6">
-        <v>3.122368969993665</v>
-      </c>
-      <c r="G6">
-        <v>0.1175680125832719</v>
-      </c>
-      <c r="H6">
+      <c r="A6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="3">
+        <v>326480.867851194</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.557469448971384</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0.557469448971384</v>
+      </c>
+      <c r="F6" s="3">
+        <v>3.12236896999367</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0.117568012583272</v>
+      </c>
+      <c r="H6" s="3">
         <v>130</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7">
-        <v>251996.1693643127</v>
-      </c>
-      <c r="D7">
-        <v>1.959908158123923</v>
-      </c>
-      <c r="E7">
-        <v>1.959908158123923</v>
-      </c>
-      <c r="F7">
-        <v>8.303707805726061</v>
-      </c>
-      <c r="G7">
-        <v>0.09286773007845917</v>
-      </c>
-      <c r="H7">
+    <row r="7" s="1" customFormat="1" spans="1:8">
+      <c r="A7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="4">
+        <v>251996.169364313</v>
+      </c>
+      <c r="D7" s="4">
+        <v>1.95990815812392</v>
+      </c>
+      <c r="E7" s="4">
+        <v>1.95990815812392</v>
+      </c>
+      <c r="F7" s="4">
+        <v>8.30370780572606</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0.0928677300784592</v>
+      </c>
+      <c r="H7" s="4">
         <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8">
-        <v>203630.3946798656</v>
-      </c>
-      <c r="D8">
-        <v>0.3923332922559757</v>
-      </c>
-      <c r="E8">
-        <v>0.3923332922559757</v>
-      </c>
-      <c r="F8">
-        <v>1.622690791541809</v>
-      </c>
-      <c r="G8">
+      <c r="A8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="3">
+        <v>203630.394679866</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0.392333292255976</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0.392333292255976</v>
+      </c>
+      <c r="F8" s="3">
+        <v>1.62269079154181</v>
+      </c>
+      <c r="G8" s="3">
         <v>0.172176065388164</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="3">
         <v>161</v>
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9">
+      <c r="A9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="3">
         <v>169066.07928493</v>
       </c>
-      <c r="D9">
-        <v>0.2482614967473278</v>
-      </c>
-      <c r="E9">
-        <v>0.2482614967473278</v>
-      </c>
-      <c r="F9">
-        <v>1.162968175844494</v>
-      </c>
-      <c r="G9">
-        <v>0.1518034215370654</v>
-      </c>
-      <c r="H9">
+      <c r="D9" s="3">
+        <v>0.248261496747328</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0.248261496747328</v>
+      </c>
+      <c r="F9" s="3">
+        <v>1.16296817584449</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0.151803421537065</v>
+      </c>
+      <c r="H9" s="3">
         <v>150</v>
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10">
-        <v>158912.1482017663</v>
-      </c>
-      <c r="D10">
-        <v>0.2498147333864162</v>
-      </c>
-      <c r="E10">
-        <v>0.2498147333864162</v>
-      </c>
-      <c r="F10">
-        <v>1.481204615619884</v>
-      </c>
-      <c r="G10">
-        <v>0.09413535820875518</v>
-      </c>
-      <c r="H10">
+      <c r="A10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="3">
+        <v>158912.148201766</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0.249814733386416</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0.249814733386416</v>
+      </c>
+      <c r="F10" s="3">
+        <v>1.48120461561988</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0.0941353582087552</v>
+      </c>
+      <c r="H10" s="3">
         <v>156</v>
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11">
-        <v>127681.2775010664</v>
-      </c>
-      <c r="D11">
-        <v>0.6433537780585976</v>
-      </c>
-      <c r="E11">
-        <v>0.6433537780585976</v>
-      </c>
-      <c r="F11">
-        <v>3.647429764413447</v>
-      </c>
-      <c r="G11">
-        <v>0.09017612223701621</v>
-      </c>
-      <c r="H11">
+      <c r="A11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="3">
+        <v>127681.277501066</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0.643353778058598</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0.643353778058598</v>
+      </c>
+      <c r="F11" s="3">
+        <v>3.64742976441345</v>
+      </c>
+      <c r="G11" s="3">
+        <v>0.0901761222370162</v>
+      </c>
+      <c r="H11" s="3">
         <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12">
-        <v>48131.15440957699</v>
-      </c>
-      <c r="D12">
+      <c r="A12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="3">
+        <v>48131.154409577</v>
+      </c>
+      <c r="D12" s="3">
         <v>0.445803310420757</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="3">
         <v>0.445803310420757</v>
       </c>
-      <c r="F12">
-        <v>6.459372596511582</v>
-      </c>
-      <c r="G12">
-        <v>0.03146444940996052</v>
-      </c>
-      <c r="H12">
+      <c r="F12" s="3">
+        <v>6.45937259651158</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0.0314644494099605</v>
+      </c>
+      <c r="H12" s="3">
         <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13">
-        <v>8035.209179514241</v>
-      </c>
-      <c r="D13">
-        <v>0.1513735198280768</v>
-      </c>
-      <c r="E13">
-        <v>0.1513735198280768</v>
-      </c>
-      <c r="F13">
-        <v>0.7851149839385375</v>
-      </c>
-      <c r="G13">
-        <v>0.1673436665417186</v>
-      </c>
-      <c r="H13">
+      <c r="A13" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="3">
+        <v>8035.20917951424</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0.151373519828077</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0.151373519828077</v>
+      </c>
+      <c r="F13" s="3">
+        <v>0.785114983938538</v>
+      </c>
+      <c r="G13" s="3">
+        <v>0.167343666541719</v>
+      </c>
+      <c r="H13" s="3">
         <v>288</v>
       </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14">
-        <v>6869.006329157677</v>
-      </c>
-      <c r="D14">
-        <v>0.9106899418006906</v>
-      </c>
-      <c r="E14">
-        <v>0.9106899418006906</v>
-      </c>
-      <c r="F14">
-        <v>4.732091689798159</v>
-      </c>
-      <c r="G14">
-        <v>0.1002858868734002</v>
-      </c>
-      <c r="H14">
+      <c r="A14" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="3">
+        <v>6869.00632915768</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0.910689941800691</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0.910689941800691</v>
+      </c>
+      <c r="F14" s="3">
+        <v>4.73209168979816</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0.1002858868734</v>
+      </c>
+      <c r="H14" s="3">
         <v>130</v>
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="A15" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C15">
-        <v>346.3841724597155</v>
-      </c>
-      <c r="D15">
-        <v>0.4375817370690518</v>
-      </c>
-      <c r="E15">
-        <v>0.4375817370690518</v>
-      </c>
-      <c r="F15">
-        <v>1.573790749701978</v>
-      </c>
-      <c r="G15">
-        <v>0.1952908996560981</v>
-      </c>
-      <c r="H15">
+      <c r="C15" s="3">
+        <v>346.384172459716</v>
+      </c>
+      <c r="D15" s="3">
+        <v>0.437581737069052</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0.437581737069052</v>
+      </c>
+      <c r="F15" s="3">
+        <v>1.57379074970198</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0.195290899656098</v>
+      </c>
+      <c r="H15" s="3">
         <v>188</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>